--- a/bots/crawl_ch/output/electronics_2022-08-26.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
@@ -1098,24 +1098,24 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5882124</t>
+          <t>4425412</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
+          <t>Militärtaschenlampe LED</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/militaertaschenlampe-led/p/4425412</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Avent</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1139,34 +1139,34 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
+          <t>Militärtaschenlampe LED 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6689620</t>
+          <t>5882124</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Philips Bügeleisen GC1750/21</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/philips-buegeleisen-gc175021/p/6689620</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1176,12 +1176,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>Avent</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>59.90</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1190,34 +1190,34 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Philips Bügeleisen GC1750/21 59.90 Schweizer Franken</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6670192</t>
+          <t>6689620</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01</t>
+          <t>Philips Bügeleisen GC1750/21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/philips-buegeleisen-gc175021/p/6689620</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>49.90</t>
+          <t>59.90</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1241,34 +1241,34 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01 49.90 Schweizer Franken</t>
+          <t>Philips Bügeleisen GC1750/21 59.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5764836</t>
+          <t>6670192</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>satrap Aqua W4 Wasserkocher</t>
+          <t>Philips Wasserkocher HD9318/01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-w4-wasserkocher/p/5764836</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Philips</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>49.90</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1297,37 +1297,35 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>satrap Aqua W4 Wasserkocher 39.95 Schweizer Franken</t>
+          <t>Philips Wasserkocher HD9318/01 49.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6288875</t>
+          <t>5764836</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
+          <t>satrap Aqua W4 Wasserkocher</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-w4-wasserkocher/p/5764836</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1336,7 +1334,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>149.00</t>
+          <t>39.95</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1345,42 +1343,42 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 149.00 Schweizer Franken</t>
+          <t>satrap Aqua W4 Wasserkocher 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6425996</t>
+          <t>6288875</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1389,7 +1387,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>249.00</t>
+          <t>149.00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1398,42 +1396,42 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5751209</t>
+          <t>6425996</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1442,7 +1440,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>249.00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1451,42 +1449,42 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6125818</t>
+          <t>5751209</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1504,49 +1502,51 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7016089</t>
+          <t>6125818</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0</t>
+          <t>satrap Mano XA Handmixer</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-buegeleisen-fv4961s0/p/7016089</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Tefal</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>69.90</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1555,34 +1555,34 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0 30% Aktion 69.90 Schweizer Franken statt 99.90 Schweizer Franken</t>
+          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6821480</t>
+          <t>7016089</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium)</t>
+          <t>Tefal Bügeleisen FV4961S0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-dampfbuegeleisen-express-protect-sv9202s0-75-bar-durilium/p/6821480</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-buegeleisen-fv4961s0/p/7016089</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>199.00</t>
+          <t>69.90</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1611,29 +1611,29 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 20% Aktion 199.00 Schweizer Franken statt 249.00 Schweizer Franken</t>
+          <t>Tefal Bügeleisen FV4961S0 30% Aktion 69.90 Schweizer Franken statt 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6822783</t>
+          <t>6821480</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC</t>
+          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-dampfbuegeleisen-express-protect-sv9202s0-75-bar-durilium/p/6821480</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1643,12 +1643,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Tefal</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>199.00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1662,29 +1662,29 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
+          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 20% Aktion 199.00 Schweizer Franken statt 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6872922</t>
+          <t>6822783</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Trend Radio DAB+ DB-23C</t>
+          <t>Trend Car Charger QC</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/trend-radio-dab-db-23c/p/6872922</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1708,42 +1708,40 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Trend Radio DAB+ DB-23C 49.95 Schweizer Franken</t>
+          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6007537</t>
+          <t>6872922</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB</t>
+          <t>Trend Radio DAB+ DB-23C</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/trend-radio-dab-db-23c/p/6872922</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1752,7 +1750,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -1761,40 +1759,42 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
+          <t>Trend Radio DAB+ DB-23C 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6459240</t>
+          <t>6007537</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB</t>
+          <t>Trend USB-Stick 16 GB</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>59.95</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -1817,29 +1817,29 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6007538</t>
+          <t>6459240</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB</t>
+          <t>Trend USB-Stick 256 GB</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>59.95</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -1868,37 +1868,35 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5867973</t>
+          <t>6007538</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB</t>
+          <t>Trend USB-Stick 32 GB</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>4</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1907,7 +1905,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -1921,105 +1919,87 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5894674</t>
+          <t>5867973</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System</t>
+          <t>Trend USB-Stick 64 GB</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Trisa</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>29.95/1ST</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4589933</t>
+          <t>5894674</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli</t>
+          <t>Trisa Beauty Sonic Nail Care System</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
+          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2028,17 +2008,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Trisa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>29.95/1ST</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2048,7 +2028,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2058,41 +2038,37 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4589935</t>
+          <t>3862219</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli</t>
+          <t>Varta Active LED Camping Lanterne</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/varta-active-led-camping-lanterne/p/3862219</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
         <v>0</v>
@@ -2104,59 +2080,43 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>3.48/1ST</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>38.50</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
+          <t>Varta Active LED Camping Lanterne 38.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3494067</t>
+          <t>4589933</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli</t>
+          <t>Varta Longlife AAA 4er Bli</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2175,12 +2135,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2190,7 +2150,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2205,29 +2165,29 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
+          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:58</t>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3591272</t>
+          <t>4589935</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power D 2er Bli</t>
+          <t>Varta Longlife C 2er Bli</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2246,42 +2206,235 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>3.48/1ST</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>2022-08-26 20:59:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3494067</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Varta Longlife Max Power AAA 4er Bli</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Varta</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
           <t>9.95</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2.49/1ST</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2022-08-26 20:59:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3591272</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Varta Longlife Max Power D 2er Bli</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Varta</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>4.98/1ST</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>Preis pro 1 Stück</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>4.98</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>2022-08-26 07:06:58</t>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2022-08-26 20:59:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>6805078</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Varta Premium LED 2xAA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/varta-premium-led-2xaa/p/6805078</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Varta</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Varta Premium LED 2xAA 39.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>2022-08-26 20:59:53</t>
         </is>
       </c>
     </row>
